--- a/data/negative_signals/Indirectly connected (A-X-B) - Isosorbide mononitrate - agranulocytosis.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Isosorbide mononitrate - agranulocytosis.xlsx
@@ -191,46 +191,724 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>118793595</t>
+    <t>53015014</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>52531687</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>119281712</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>150058986</t>
+    <t>51368564</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>58548834</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>65381417</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>53440672</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>83683544</t>
   </si>
   <si>
     <t>does not occur in</t>
   </si>
   <si>
-    <t>131781462</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>117580013</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>119703879</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>124950062</t>
-  </si>
-  <si>
-    <t>is not process of</t>
+    <t>4048979</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>68033755</t>
+  </si>
+  <si>
+    <t>52070514</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>104773537</t>
+  </si>
+  <si>
+    <t>does not prevent</t>
+  </si>
+  <si>
+    <t>13257288</t>
+  </si>
+  <si>
+    <t>71204873</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>3007189</t>
+  </si>
+  <si>
+    <t>myocardial infarction</t>
+  </si>
+  <si>
+    <t>13257502</t>
+  </si>
+  <si>
+    <t>56624466</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>82750</t>
+  </si>
+  <si>
+    <t>adriamycin</t>
+  </si>
+  <si>
+    <t>130351930</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>52021651</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>15281300</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>760841</t>
+  </si>
+  <si>
+    <t>domestic rabbit</t>
+  </si>
+  <si>
+    <t>91916454</t>
+  </si>
+  <si>
+    <t>51521980</t>
+  </si>
+  <si>
+    <t>3170803</t>
+  </si>
+  <si>
+    <t>abdominal pain</t>
+  </si>
+  <si>
+    <t>13253221</t>
+  </si>
+  <si>
+    <t>40126363</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>617264</t>
+  </si>
+  <si>
+    <t>diarrhea</t>
+  </si>
+  <si>
+    <t>13253707</t>
+  </si>
+  <si>
+    <t>59746542</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>40126182</t>
+  </si>
+  <si>
+    <t>4048530</t>
+  </si>
+  <si>
+    <t>hypotension</t>
+  </si>
+  <si>
+    <t>13257433</t>
+  </si>
+  <si>
+    <t>97506618</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>40029151</t>
+  </si>
+  <si>
+    <t>447781</t>
+  </si>
+  <si>
+    <t>fibrosis</t>
+  </si>
+  <si>
+    <t>75207304</t>
+  </si>
+  <si>
+    <t>67659362</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>83957808</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>76941658</t>
+  </si>
+  <si>
+    <t>53477912</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>76825429</t>
+  </si>
+  <si>
+    <t>67731752</t>
+  </si>
+  <si>
+    <t>113575589</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>61086538</t>
+  </si>
+  <si>
+    <t>78371095</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>94138945</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>64127977</t>
+  </si>
+  <si>
+    <t>51659939</t>
+  </si>
+  <si>
+    <t>64133042</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>51795079</t>
+  </si>
+  <si>
+    <t>3737354</t>
+  </si>
+  <si>
+    <t>prophylactic treatment</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>78894164</t>
+  </si>
+  <si>
+    <t>does not use</t>
+  </si>
+  <si>
+    <t>82667872</t>
+  </si>
+  <si>
+    <t>56938489</t>
+  </si>
+  <si>
+    <t>2518307</t>
+  </si>
+  <si>
+    <t>girls</t>
+  </si>
+  <si>
+    <t>52499912</t>
+  </si>
+  <si>
+    <t>52356558</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>51918795</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>56501158</t>
+  </si>
+  <si>
+    <t>414518</t>
+  </si>
+  <si>
+    <t>congestive heart failure</t>
+  </si>
+  <si>
+    <t>96578223</t>
+  </si>
+  <si>
+    <t>40126353</t>
+  </si>
+  <si>
+    <t>133368</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>66346731</t>
+  </si>
+  <si>
+    <t>52888366</t>
+  </si>
+  <si>
+    <t>85467004</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>94877592</t>
+  </si>
+  <si>
+    <t>56620884</t>
+  </si>
+  <si>
+    <t>51644439</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>61532080</t>
+  </si>
+  <si>
+    <t>67731612</t>
+  </si>
+  <si>
+    <t>57894297</t>
+  </si>
+  <si>
+    <t>3815757</t>
+  </si>
+  <si>
+    <t>treatment protocols</t>
+  </si>
+  <si>
+    <t>94598917</t>
+  </si>
+  <si>
+    <t>95299129</t>
+  </si>
+  <si>
+    <t>132054246</t>
+  </si>
+  <si>
+    <t>59259151</t>
+  </si>
+  <si>
+    <t>3763552</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>76434456</t>
+  </si>
+  <si>
+    <t>101252482</t>
+  </si>
+  <si>
+    <t>69826116</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>66954308</t>
+  </si>
+  <si>
+    <t>59476151</t>
+  </si>
+  <si>
+    <t>55795388</t>
+  </si>
+  <si>
+    <t>237928</t>
+  </si>
+  <si>
+    <t>control groups</t>
+  </si>
+  <si>
+    <t>89192872</t>
+  </si>
+  <si>
+    <t>53141098</t>
+  </si>
+  <si>
+    <t>5699005</t>
+  </si>
+  <si>
+    <t>falls</t>
+  </si>
+  <si>
+    <t>53428756</t>
+  </si>
+  <si>
+    <t>40126278</t>
+  </si>
+  <si>
+    <t>701874</t>
+  </si>
+  <si>
+    <t>pregnant women</t>
+  </si>
+  <si>
+    <t>72443774</t>
+  </si>
+  <si>
+    <t>69128948</t>
+  </si>
+  <si>
+    <t>52245826</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>87544176</t>
+  </si>
+  <si>
+    <t>103854712</t>
+  </si>
+  <si>
+    <t>52392191</t>
+  </si>
+  <si>
+    <t>66334415</t>
+  </si>
+  <si>
+    <t>2406105</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>99865903</t>
+  </si>
+  <si>
+    <t>107922067</t>
+  </si>
+  <si>
+    <t>4040981</t>
+  </si>
+  <si>
+    <t>pharmacotherapy</t>
+  </si>
+  <si>
+    <t>107335974</t>
+  </si>
+  <si>
+    <t>107273998</t>
+  </si>
+  <si>
+    <t>52519047</t>
+  </si>
+  <si>
+    <t>91931482</t>
+  </si>
+  <si>
+    <t>51285866</t>
+  </si>
+  <si>
+    <t>58048874</t>
+  </si>
+  <si>
+    <t>2511284</t>
+  </si>
+  <si>
+    <t>induction procedure</t>
+  </si>
+  <si>
+    <t>79363233</t>
+  </si>
+  <si>
+    <t>60150595</t>
+  </si>
+  <si>
+    <t>836626</t>
+  </si>
+  <si>
+    <t>sodium chloride</t>
+  </si>
+  <si>
+    <t>76087636</t>
+  </si>
+  <si>
+    <t>58579938</t>
+  </si>
+  <si>
+    <t>643114</t>
+  </si>
+  <si>
+    <t>aspirin</t>
+  </si>
+  <si>
+    <t>90295546</t>
+  </si>
+  <si>
+    <t>105796328</t>
+  </si>
+  <si>
+    <t>84475757</t>
+  </si>
+  <si>
+    <t>65223869</t>
+  </si>
+  <si>
+    <t>126327884</t>
+  </si>
+  <si>
+    <t>6107559</t>
+  </si>
+  <si>
+    <t>application procedure</t>
+  </si>
+  <si>
+    <t>123426411</t>
+  </si>
+  <si>
+    <t>85708958</t>
+  </si>
+  <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>58878956</t>
+  </si>
+  <si>
+    <t>55071422</t>
+  </si>
+  <si>
+    <t>74069156</t>
+  </si>
+  <si>
+    <t>52170687</t>
+  </si>
+  <si>
+    <t>445573</t>
+  </si>
+  <si>
+    <t>cyclosporine</t>
+  </si>
+  <si>
+    <t>91612390</t>
+  </si>
+  <si>
+    <t>80728276</t>
+  </si>
+  <si>
+    <t>4048875</t>
+  </si>
+  <si>
+    <t>implantation procedure</t>
+  </si>
+  <si>
+    <t>77354299</t>
+  </si>
+  <si>
+    <t>67553065</t>
+  </si>
+  <si>
+    <t>3779305</t>
+  </si>
+  <si>
+    <t>consumption-archaic term for tb</t>
+  </si>
+  <si>
+    <t>89112457</t>
+  </si>
+  <si>
+    <t>63562686</t>
+  </si>
+  <si>
+    <t>114013767</t>
+  </si>
+  <si>
+    <t>117362665</t>
+  </si>
+  <si>
+    <t>2899046</t>
+  </si>
+  <si>
+    <t>areae</t>
+  </si>
+  <si>
+    <t>59091114</t>
+  </si>
+  <si>
+    <t>103249974</t>
+  </si>
+  <si>
+    <t>2822765</t>
+  </si>
+  <si>
+    <t>kidney failure</t>
+  </si>
+  <si>
+    <t>70850930</t>
+  </si>
+  <si>
+    <t>40126308</t>
+  </si>
+  <si>
+    <t>71673808</t>
+  </si>
+  <si>
+    <t>91583856</t>
+  </si>
+  <si>
+    <t>2506281</t>
+  </si>
+  <si>
+    <t>adverse effects</t>
+  </si>
+  <si>
+    <t>88167913</t>
+  </si>
+  <si>
+    <t>103574402</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>65400904</t>
+  </si>
+  <si>
+    <t>90696644</t>
+  </si>
+  <si>
+    <t>57869738</t>
+  </si>
+  <si>
+    <t>125562143</t>
+  </si>
+  <si>
+    <t>105141404</t>
+  </si>
+  <si>
+    <t>84764</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>53750681</t>
+  </si>
+  <si>
+    <t>does not disrupt</t>
+  </si>
+  <si>
+    <t>58061515</t>
+  </si>
+  <si>
+    <t>69850793</t>
+  </si>
+  <si>
+    <t>5648475</t>
+  </si>
+  <si>
+    <t>vasodilation</t>
+  </si>
+  <si>
+    <t>127595782</t>
+  </si>
+  <si>
+    <t>116470924</t>
+  </si>
+  <si>
+    <t>70189671</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>59988158</t>
   </si>
   <si>
     <t>5648228</t>
@@ -239,550 +917,235 @@
     <t>therapeutic procedure</t>
   </si>
   <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>122653854</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>133284932</t>
+    <t>66830291</t>
   </si>
   <si>
     <t>is lower than</t>
   </si>
   <si>
-    <t>190706431</t>
+    <t>53428173</t>
+  </si>
+  <si>
+    <t>124500329</t>
   </si>
   <si>
     <t>is higher than</t>
   </si>
   <si>
-    <t>119691310</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>120320602</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>118125398</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>118176436</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>171037091</t>
+    <t>59780038</t>
+  </si>
+  <si>
+    <t>53969792</t>
+  </si>
+  <si>
+    <t>52518918</t>
+  </si>
+  <si>
+    <t>104841062</t>
   </si>
   <si>
     <t>complicates</t>
   </si>
   <si>
-    <t>118418351</t>
-  </si>
-  <si>
-    <t>189534553</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>136662443</t>
-  </si>
-  <si>
-    <t>118781199</t>
-  </si>
-  <si>
-    <t>4048979</t>
-  </si>
-  <si>
-    <t>mus</t>
-  </si>
-  <si>
-    <t>134485403</t>
-  </si>
-  <si>
-    <t>118302760</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>79531815</t>
-  </si>
-  <si>
-    <t>170987558</t>
-  </si>
-  <si>
-    <t>does not prevent</t>
-  </si>
-  <si>
-    <t>137618085</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>3007189</t>
-  </si>
-  <si>
-    <t>myocardial infarction</t>
-  </si>
-  <si>
-    <t>79531932</t>
-  </si>
-  <si>
-    <t>123050000</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>760841</t>
-  </si>
-  <si>
-    <t>domestic rabbit</t>
-  </si>
-  <si>
-    <t>158040271</t>
-  </si>
-  <si>
-    <t>117720585</t>
-  </si>
-  <si>
-    <t>4048530</t>
-  </si>
-  <si>
-    <t>hypotension</t>
-  </si>
-  <si>
-    <t>79531906</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>163713510</t>
-  </si>
-  <si>
-    <t>106218881</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>3170803</t>
-  </si>
-  <si>
-    <t>abdominal pain</t>
-  </si>
-  <si>
-    <t>79529072</t>
-  </si>
-  <si>
-    <t>106309685</t>
-  </si>
-  <si>
-    <t>617264</t>
-  </si>
-  <si>
-    <t>diarrhea</t>
-  </si>
-  <si>
-    <t>79529335</t>
-  </si>
-  <si>
-    <t>106309485</t>
-  </si>
-  <si>
-    <t>126147830</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>3737354</t>
-  </si>
-  <si>
-    <t>prophylactic treatment</t>
-  </si>
-  <si>
-    <t>145261465</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>149048033</t>
-  </si>
-  <si>
-    <t>123313610</t>
-  </si>
-  <si>
-    <t>447781</t>
-  </si>
-  <si>
-    <t>fibrosis</t>
-  </si>
-  <si>
-    <t>141684543</t>
-  </si>
-  <si>
-    <t>134071381</t>
-  </si>
-  <si>
-    <t>2518307</t>
-  </si>
-  <si>
-    <t>girls</t>
-  </si>
-  <si>
-    <t>118731941</t>
-  </si>
-  <si>
-    <t>118642452</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>118148545</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>122927422</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>124564071</t>
-  </si>
-  <si>
-    <t>134120716</t>
-  </si>
-  <si>
-    <t>124274686</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>161059446</t>
-  </si>
-  <si>
-    <t>123001727</t>
-  </si>
-  <si>
-    <t>117865028</t>
-  </si>
-  <si>
-    <t>414518</t>
-  </si>
-  <si>
-    <t>congestive heart failure</t>
-  </si>
-  <si>
-    <t>162781906</t>
-  </si>
-  <si>
-    <t>106309675</t>
-  </si>
-  <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>132690459</t>
-  </si>
-  <si>
-    <t>151840401</t>
-  </si>
-  <si>
-    <t>119180115</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>170072339</t>
-  </si>
-  <si>
-    <t>153796475</t>
-  </si>
-  <si>
-    <t>118632708</t>
-  </si>
-  <si>
-    <t>129695389</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>133290631</t>
-  </si>
-  <si>
-    <t>125901790</t>
-  </si>
-  <si>
-    <t>122231954</t>
-  </si>
-  <si>
-    <t>237928</t>
-  </si>
-  <si>
-    <t>control groups</t>
-  </si>
-  <si>
-    <t>155464281</t>
-  </si>
-  <si>
-    <t>119428032</t>
-  </si>
-  <si>
-    <t>5699005</t>
-  </si>
-  <si>
-    <t>falls</t>
-  </si>
-  <si>
-    <t>119691940</t>
-  </si>
-  <si>
-    <t>106309610</t>
-  </si>
-  <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>125318107</t>
-  </si>
-  <si>
-    <t>121494645</t>
-  </si>
-  <si>
-    <t>140458735</t>
-  </si>
-  <si>
-    <t>118414436</t>
-  </si>
-  <si>
-    <t>2406105</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>166099805</t>
-  </si>
-  <si>
-    <t>174116513</t>
-  </si>
-  <si>
-    <t>4040981</t>
-  </si>
-  <si>
-    <t>pharmacotherapy</t>
-  </si>
-  <si>
-    <t>173445536</t>
-  </si>
-  <si>
-    <t>173469732</t>
-  </si>
-  <si>
-    <t>158100772</t>
-  </si>
-  <si>
-    <t>117479629</t>
-  </si>
-  <si>
-    <t>124455038</t>
-  </si>
-  <si>
-    <t>118781421</t>
-  </si>
-  <si>
-    <t>2511284</t>
-  </si>
-  <si>
-    <t>induction procedure</t>
-  </si>
-  <si>
-    <t>145763166</t>
-  </si>
-  <si>
-    <t>126578940</t>
-  </si>
-  <si>
-    <t>2506281</t>
-  </si>
-  <si>
-    <t>adverse effects</t>
-  </si>
-  <si>
-    <t>154451760</t>
-  </si>
-  <si>
-    <t>169792179</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>124264808</t>
-  </si>
-  <si>
-    <t>131800904</t>
-  </si>
-  <si>
-    <t>171355558</t>
-  </si>
-  <si>
-    <t>191774102</t>
-  </si>
-  <si>
-    <t>156888593</t>
-  </si>
-  <si>
-    <t>836626</t>
-  </si>
-  <si>
-    <t>sodium chloride</t>
-  </si>
-  <si>
-    <t>142573976</t>
-  </si>
-  <si>
-    <t>124945476</t>
-  </si>
-  <si>
-    <t>82750</t>
-  </si>
-  <si>
-    <t>adriamycin</t>
-  </si>
-  <si>
-    <t>196505345</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>118254680</t>
-  </si>
-  <si>
-    <t>81497751</t>
-  </si>
-  <si>
-    <t>701874</t>
-  </si>
-  <si>
-    <t>pregnant women</t>
-  </si>
-  <si>
-    <t>135541384</t>
-  </si>
-  <si>
-    <t>138791840</t>
-  </si>
-  <si>
-    <t>118511805</t>
-  </si>
-  <si>
-    <t>6107559</t>
-  </si>
-  <si>
-    <t>application procedure</t>
-  </si>
-  <si>
-    <t>189615485</t>
-  </si>
-  <si>
-    <t>152135257</t>
-  </si>
-  <si>
-    <t>445573</t>
-  </si>
-  <si>
-    <t>cyclosporine</t>
-  </si>
-  <si>
-    <t>157803209</t>
-  </si>
-  <si>
-    <t>147198109</t>
-  </si>
-  <si>
-    <t>4048875</t>
-  </si>
-  <si>
-    <t>implantation procedure</t>
-  </si>
-  <si>
-    <t>143738430</t>
-  </si>
-  <si>
-    <t>133955113</t>
-  </si>
-  <si>
-    <t>3815757</t>
-  </si>
-  <si>
-    <t>treatment protocols</t>
-  </si>
-  <si>
-    <t>161502728</t>
-  </si>
-  <si>
-    <t>160792498</t>
-  </si>
-  <si>
-    <t>122693583</t>
-  </si>
-  <si>
-    <t>198208847</t>
+    <t>52177029</t>
+  </si>
+  <si>
+    <t>51930910</t>
+  </si>
+  <si>
+    <t>51917529</t>
+  </si>
+  <si>
+    <t>70248875</t>
+  </si>
+  <si>
+    <t>123319893</t>
+  </si>
+  <si>
+    <t>548324</t>
+  </si>
+  <si>
+    <t>muscle, smooth, vascular</t>
+  </si>
+  <si>
+    <t>110826131</t>
+  </si>
+  <si>
+    <t>93957490</t>
+  </si>
+  <si>
+    <t>544027</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>96684872</t>
+  </si>
+  <si>
+    <t>81359498</t>
+  </si>
+  <si>
+    <t>4964514</t>
+  </si>
+  <si>
+    <t>perindopril</t>
+  </si>
+  <si>
+    <t>120385240</t>
+  </si>
+  <si>
+    <t>82776292</t>
+  </si>
+  <si>
+    <t>4950808</t>
+  </si>
+  <si>
+    <t>allopurinol</t>
+  </si>
+  <si>
+    <t>125347369</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>64164708</t>
+  </si>
+  <si>
+    <t>112380136</t>
+  </si>
+  <si>
+    <t>4890533</t>
+  </si>
+  <si>
+    <t>angiotensin-converting enzyme inhibitors</t>
+  </si>
+  <si>
+    <t>109018011</t>
+  </si>
+  <si>
+    <t>83898753</t>
+  </si>
+  <si>
+    <t>450061</t>
+  </si>
+  <si>
+    <t>propranolol</t>
+  </si>
+  <si>
+    <t>74440736</t>
+  </si>
+  <si>
+    <t>97625799</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>59393681</t>
+  </si>
+  <si>
+    <t>81361210</t>
+  </si>
+  <si>
+    <t>81360797</t>
+  </si>
+  <si>
+    <t>113575838</t>
+  </si>
+  <si>
+    <t>78758095</t>
+  </si>
+  <si>
+    <t>56233291</t>
+  </si>
+  <si>
+    <t>4048501</t>
+  </si>
+  <si>
+    <t>hydrogen peroxide</t>
+  </si>
+  <si>
+    <t>114608007</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>67593125</t>
+  </si>
+  <si>
+    <t>88656659</t>
+  </si>
+  <si>
+    <t>4041077</t>
+  </si>
+  <si>
+    <t>enalapril</t>
+  </si>
+  <si>
+    <t>109940608</t>
+  </si>
+  <si>
+    <t>83898624</t>
+  </si>
+  <si>
+    <t>4040861</t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>90295563</t>
+  </si>
+  <si>
+    <t>112503538</t>
+  </si>
+  <si>
+    <t>132046376</t>
+  </si>
+  <si>
+    <t>4035048</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>60286362</t>
+  </si>
+  <si>
+    <t>85155919</t>
+  </si>
+  <si>
+    <t>85155800</t>
+  </si>
+  <si>
+    <t>3815670</t>
+  </si>
+  <si>
+    <t>transplantation</t>
+  </si>
+  <si>
+    <t>68523462</t>
+  </si>
+  <si>
+    <t>71569231</t>
+  </si>
+  <si>
+    <t>3743476</t>
+  </si>
+  <si>
+    <t>onset of illness</t>
+  </si>
+  <si>
+    <t>Concepts &amp; Ideas</t>
+  </si>
+  <si>
+    <t>109614833</t>
+  </si>
+  <si>
+    <t>75223735</t>
   </si>
   <si>
     <t>3131611</t>
@@ -791,352 +1154,82 @@
     <t>observation parameter</t>
   </si>
   <si>
-    <t>142361883</t>
-  </si>
-  <si>
-    <t>161570157</t>
+    <t>82507507</t>
+  </si>
+  <si>
+    <t>95367763</t>
   </si>
   <si>
     <t>does not inhibit</t>
   </si>
   <si>
-    <t>146988051</t>
-  </si>
-  <si>
-    <t>132913394</t>
-  </si>
-  <si>
-    <t>2899046</t>
-  </si>
-  <si>
-    <t>areae</t>
-  </si>
-  <si>
-    <t>125486406</t>
-  </si>
-  <si>
-    <t>169443600</t>
-  </si>
-  <si>
-    <t>2822765</t>
-  </si>
-  <si>
-    <t>kidney failure</t>
-  </si>
-  <si>
-    <t>137175994</t>
-  </si>
-  <si>
-    <t>157766281</t>
-  </si>
-  <si>
-    <t>137991536</t>
-  </si>
-  <si>
-    <t>106309635</t>
-  </si>
-  <si>
-    <t>84764</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>120102840</t>
-  </si>
-  <si>
-    <t>does not disrupt</t>
-  </si>
-  <si>
-    <t>133570301</t>
-  </si>
-  <si>
-    <t>124449149</t>
-  </si>
-  <si>
-    <t>643114</t>
-  </si>
-  <si>
-    <t>aspirin</t>
-  </si>
-  <si>
-    <t>156572126</t>
-  </si>
-  <si>
-    <t>172017364</t>
-  </si>
-  <si>
-    <t>148976471</t>
-  </si>
-  <si>
-    <t>131563953</t>
-  </si>
-  <si>
-    <t>192532974</t>
-  </si>
-  <si>
-    <t>5648475</t>
-  </si>
-  <si>
-    <t>vasodilation</t>
-  </si>
-  <si>
-    <t>182694190</t>
-  </si>
-  <si>
-    <t>193813340</t>
-  </si>
-  <si>
-    <t>136606219</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>122887749</t>
-  </si>
-  <si>
-    <t>548324</t>
-  </si>
-  <si>
-    <t>muscle, smooth, vascular</t>
-  </si>
-  <si>
-    <t>177002795</t>
-  </si>
-  <si>
-    <t>160149633</t>
-  </si>
-  <si>
-    <t>544027</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>162885597</t>
-  </si>
-  <si>
-    <t>147742329</t>
-  </si>
-  <si>
-    <t>4964514</t>
-  </si>
-  <si>
-    <t>perindopril</t>
-  </si>
-  <si>
-    <t>186579719</t>
-  </si>
-  <si>
-    <t>149200456</t>
-  </si>
-  <si>
-    <t>4950808</t>
-  </si>
-  <si>
-    <t>allopurinol</t>
-  </si>
-  <si>
-    <t>191536583</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>178605516</t>
-  </si>
-  <si>
-    <t>130561480</t>
-  </si>
-  <si>
-    <t>4890533</t>
-  </si>
-  <si>
-    <t>angiotensin-converting enzyme inhibitors</t>
-  </si>
-  <si>
-    <t>175138916</t>
-  </si>
-  <si>
-    <t>150371518</t>
-  </si>
-  <si>
-    <t>450061</t>
-  </si>
-  <si>
-    <t>propranolol</t>
-  </si>
-  <si>
-    <t>125814918</t>
-  </si>
-  <si>
-    <t>147825592</t>
-  </si>
-  <si>
-    <t>147825239</t>
-  </si>
-  <si>
-    <t>179702527</t>
-  </si>
-  <si>
-    <t>140820371</t>
-  </si>
-  <si>
-    <t>163832913</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>145152758</t>
-  </si>
-  <si>
-    <t>122623749</t>
-  </si>
-  <si>
-    <t>4048501</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide</t>
-  </si>
-  <si>
-    <t>180840107</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>154855997</t>
-  </si>
-  <si>
-    <t>131072930</t>
-  </si>
-  <si>
-    <t>4041077</t>
-  </si>
-  <si>
-    <t>enalapril</t>
-  </si>
-  <si>
-    <t>176069440</t>
-  </si>
-  <si>
-    <t>150371396</t>
-  </si>
-  <si>
-    <t>4040861</t>
-  </si>
-  <si>
-    <t>complication</t>
-  </si>
-  <si>
-    <t>156572148</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>178730441</t>
-  </si>
-  <si>
-    <t>198201495</t>
-  </si>
-  <si>
-    <t>4035048</t>
-  </si>
-  <si>
-    <t>heart</t>
-  </si>
-  <si>
-    <t>126699624</t>
-  </si>
-  <si>
-    <t>149653416</t>
-  </si>
-  <si>
-    <t>149653552</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>119807944</t>
-  </si>
-  <si>
-    <t>140932314</t>
-  </si>
-  <si>
-    <t>150338120</t>
-  </si>
-  <si>
-    <t>134120840</t>
-  </si>
-  <si>
-    <t>179702313</t>
-  </si>
-  <si>
-    <t>143426314</t>
-  </si>
-  <si>
-    <t>130520472</t>
-  </si>
-  <si>
-    <t>124087865</t>
-  </si>
-  <si>
-    <t>117868141</t>
-  </si>
-  <si>
-    <t>160421810</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>144853775</t>
-  </si>
-  <si>
-    <t>130525693</t>
-  </si>
-  <si>
-    <t>118011469</t>
-  </si>
-  <si>
-    <t>3815670</t>
-  </si>
-  <si>
-    <t>transplantation</t>
-  </si>
-  <si>
-    <t>134882593</t>
-  </si>
-  <si>
-    <t>138012154</t>
-  </si>
-  <si>
-    <t>3779305</t>
-  </si>
-  <si>
-    <t>consumption-archaic term for tb</t>
-  </si>
-  <si>
-    <t>129929200</t>
-  </si>
-  <si>
-    <t>155382965</t>
-  </si>
-  <si>
-    <t>183583354</t>
-  </si>
-  <si>
-    <t>180137773</t>
+    <t>76020589</t>
+  </si>
+  <si>
+    <t>66520228</t>
+  </si>
+  <si>
+    <t>3072277</t>
+  </si>
+  <si>
+    <t>antimicrobial susceptibility</t>
+  </si>
+  <si>
+    <t>120574319</t>
+  </si>
+  <si>
+    <t>125506909</t>
+  </si>
+  <si>
+    <t>60564323</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>72530195</t>
+  </si>
+  <si>
+    <t>124923777</t>
+  </si>
+  <si>
+    <t>2863639</t>
+  </si>
+  <si>
+    <t>peripheral blood mononuclear cell (cell)</t>
+  </si>
+  <si>
+    <t>125248089</t>
+  </si>
+  <si>
+    <t>78478212</t>
+  </si>
+  <si>
+    <t>2635842</t>
+  </si>
+  <si>
+    <t>congener</t>
+  </si>
+  <si>
+    <t>96578313</t>
+  </si>
+  <si>
+    <t>102072574</t>
+  </si>
+  <si>
+    <t>2406591</t>
+  </si>
+  <si>
+    <t>infusion procedures</t>
+  </si>
+  <si>
+    <t>103003752</t>
+  </si>
+  <si>
+    <t>56749064</t>
   </si>
   <si>
     <t>3763784</t>
@@ -1148,106 +1241,13 @@
     <t>Activities &amp; Behaviors</t>
   </si>
   <si>
-    <t>175138505</t>
-  </si>
-  <si>
-    <t>182971000</t>
-  </si>
-  <si>
-    <t>143498573</t>
-  </si>
-  <si>
-    <t>3763552</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>142779492</t>
-  </si>
-  <si>
-    <t>167454293</t>
-  </si>
-  <si>
-    <t>136231854</t>
-  </si>
-  <si>
-    <t>3743476</t>
-  </si>
-  <si>
-    <t>onset of illness</t>
-  </si>
-  <si>
-    <t>Concepts &amp; Ideas</t>
-  </si>
-  <si>
-    <t>175742583</t>
-  </si>
-  <si>
-    <t>139183893</t>
-  </si>
-  <si>
-    <t>3072277</t>
-  </si>
-  <si>
-    <t>antimicrobial susceptibility</t>
-  </si>
-  <si>
-    <t>186785843</t>
-  </si>
-  <si>
-    <t>191695443</t>
-  </si>
-  <si>
-    <t>126962880</t>
-  </si>
-  <si>
-    <t>2940375</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>138976465</t>
-  </si>
-  <si>
-    <t>191113316</t>
-  </si>
-  <si>
-    <t>2863639</t>
-  </si>
-  <si>
-    <t>peripheral blood mononuclear cell (cell)</t>
-  </si>
-  <si>
-    <t>191437423</t>
-  </si>
-  <si>
-    <t>144928251</t>
-  </si>
-  <si>
-    <t>2635842</t>
-  </si>
-  <si>
-    <t>congener</t>
-  </si>
-  <si>
-    <t>162782028</t>
-  </si>
-  <si>
-    <t>168303128</t>
-  </si>
-  <si>
-    <t>2406591</t>
-  </si>
-  <si>
-    <t>infusion procedures</t>
-  </si>
-  <si>
-    <t>169198201</t>
-  </si>
-  <si>
-    <t>123192419</t>
+    <t>109017619</t>
+  </si>
+  <si>
+    <t>116774449</t>
+  </si>
+  <si>
+    <t>77060152</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1165.0</v>
+        <v>102.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70.0</v>
+        <v>58.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1544,93 +1544,33 @@
         <v>74</v>
       </c>
       <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
         <v>76</v>
       </c>
-      <c r="L3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
       <c r="N3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" t="s">
-        <v>86</v>
-      </c>
-      <c r="V3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W3" t="s">
-        <v>88</v>
-      </c>
-      <c r="X3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>58.0</v>
+        <v>49.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1642,13 +1582,13 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -1660,21 +1600,27 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49.0</v>
+        <v>33.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1686,10 +1632,10 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -1704,27 +1650,21 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1736,13 +1676,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1754,16 +1694,22 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="N6" t="s">
-        <v>112</v>
+        <v>94</v>
+      </c>
+      <c r="O6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -1780,10 +1726,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -1798,16 +1744,16 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -1824,10 +1770,10 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>58</v>
@@ -1842,27 +1788,21 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1874,10 +1814,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
         <v>58</v>
@@ -1892,21 +1832,27 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -1918,10 +1864,10 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
         <v>58</v>
@@ -1936,27 +1882,27 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1968,13 +1914,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1986,27 +1932,21 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P11" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -2018,34 +1958,100 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>129</v>
+      </c>
+      <c r="R12" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" t="s">
+        <v>130</v>
+      </c>
+      <c r="T12" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" t="s">
+        <v>131</v>
+      </c>
+      <c r="V12" t="s">
+        <v>132</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12" t="s">
         <v>140</v>
       </c>
-      <c r="F12" t="s">
+      <c r="AH12" t="s">
         <v>141</v>
       </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="AI12" t="s">
         <v>142</v>
       </c>
-      <c r="L12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" t="s">
-        <v>107</v>
+      <c r="AJ12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -2062,13 +2068,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" t="s">
         <v>144</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>145</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -2083,18 +2089,24 @@
         <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2106,13 +2118,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -2124,16 +2136,16 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="M14" t="s">
         <v>153</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -2156,7 +2168,7 @@
         <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -2168,27 +2180,21 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="M15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N15" t="s">
-        <v>62</v>
-      </c>
-      <c r="O15" t="s">
-        <v>158</v>
-      </c>
-      <c r="P15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2200,13 +2206,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -2218,22 +2224,16 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="M16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" t="s">
-        <v>163</v>
-      </c>
-      <c r="P16" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -2256,7 +2256,7 @@
         <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -2271,18 +2271,24 @@
         <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M17" t="s">
         <v>167</v>
       </c>
       <c r="N17" t="s">
-        <v>123</v>
+        <v>64</v>
+      </c>
+      <c r="O17" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -2294,13 +2300,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -2312,19 +2318,19 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P18" t="s">
         <v>68</v>
@@ -2344,10 +2350,10 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
         <v>55</v>
@@ -2362,33 +2368,27 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" t="s">
+        <v>177</v>
+      </c>
+      <c r="N19" t="s">
         <v>60</v>
       </c>
-      <c r="M19" t="s">
-        <v>176</v>
-      </c>
-      <c r="N19" t="s">
-        <v>62</v>
-      </c>
       <c r="O19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P19" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>178</v>
-      </c>
-      <c r="R19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -2406,7 +2406,7 @@
         <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -2421,24 +2421,30 @@
         <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="M20" t="s">
         <v>182</v>
       </c>
       <c r="N20" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="O20" t="s">
         <v>183</v>
       </c>
       <c r="P20" t="s">
-        <v>70</v>
+        <v>94</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>184</v>
+      </c>
+      <c r="R20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -2450,10 +2456,10 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
         <v>55</v>
@@ -2468,21 +2474,27 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N21" t="s">
         <v>68</v>
       </c>
+      <c r="O21" t="s">
+        <v>189</v>
+      </c>
+      <c r="P21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -2494,13 +2506,13 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -2512,21 +2524,27 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="M22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>64</v>
+      </c>
+      <c r="O22" t="s">
+        <v>194</v>
+      </c>
+      <c r="P22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -2538,10 +2556,10 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
         <v>55</v>
@@ -2556,33 +2574,21 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
         <v>62</v>
       </c>
       <c r="M23" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N23" t="s">
-        <v>60</v>
-      </c>
-      <c r="O23" t="s">
-        <v>196</v>
-      </c>
-      <c r="P23" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>197</v>
-      </c>
-      <c r="R23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -2594,13 +2600,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -2612,21 +2618,21 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="M24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N24" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -2638,13 +2644,13 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -2656,45 +2662,27 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N25" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="O25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P25" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>207</v>
-      </c>
-      <c r="R25" t="s">
-        <v>89</v>
-      </c>
-      <c r="S25" t="s">
-        <v>208</v>
-      </c>
-      <c r="T25" t="s">
-        <v>66</v>
-      </c>
-      <c r="U25" t="s">
-        <v>209</v>
-      </c>
-      <c r="V25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -2706,39 +2694,51 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" t="s">
         <v>210</v>
       </c>
-      <c r="F26" t="s">
+      <c r="L26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" t="s">
         <v>211</v>
       </c>
-      <c r="G26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="N26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" t="s">
         <v>212</v>
       </c>
-      <c r="L26" t="s">
-        <v>85</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="P26" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q26" t="s">
         <v>213</v>
       </c>
-      <c r="N26" t="s">
-        <v>60</v>
+      <c r="R26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -2756,7 +2756,7 @@
         <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -2771,48 +2771,18 @@
         <v>216</v>
       </c>
       <c r="L27" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M27" t="s">
         <v>217</v>
       </c>
       <c r="N27" t="s">
-        <v>218</v>
-      </c>
-      <c r="O27" t="s">
-        <v>219</v>
-      </c>
-      <c r="P27" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>220</v>
-      </c>
-      <c r="R27" t="s">
-        <v>89</v>
-      </c>
-      <c r="S27" t="s">
-        <v>221</v>
-      </c>
-      <c r="T27" t="s">
-        <v>66</v>
-      </c>
-      <c r="U27" t="s">
-        <v>222</v>
-      </c>
-      <c r="V27" t="s">
-        <v>87</v>
-      </c>
-      <c r="W27" t="s">
-        <v>223</v>
-      </c>
-      <c r="X27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -2824,39 +2794,63 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" t="s">
+        <v>221</v>
+      </c>
+      <c r="N28" t="s">
+        <v>132</v>
+      </c>
+      <c r="O28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>223</v>
+      </c>
+      <c r="R28" t="s">
+        <v>116</v>
+      </c>
+      <c r="S28" t="s">
         <v>224</v>
       </c>
-      <c r="F28" t="s">
+      <c r="T28" t="s">
+        <v>94</v>
+      </c>
+      <c r="U28" t="s">
         <v>225</v>
       </c>
-      <c r="G28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" t="s">
-        <v>226</v>
-      </c>
-      <c r="L28" t="s">
-        <v>107</v>
-      </c>
-      <c r="M28" t="s">
-        <v>227</v>
-      </c>
-      <c r="N28" t="s">
-        <v>89</v>
+      <c r="V28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -2868,40 +2862,34 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
         <v>228</v>
       </c>
-      <c r="F29" t="s">
+      <c r="L29" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" t="s">
-        <v>230</v>
-      </c>
-      <c r="L29" t="s">
-        <v>231</v>
-      </c>
-      <c r="M29" t="s">
-        <v>232</v>
-      </c>
       <c r="N29" t="s">
-        <v>89</v>
-      </c>
-      <c r="O29" t="s">
-        <v>233</v>
-      </c>
-      <c r="P29" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
@@ -2918,13 +2906,13 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -2936,22 +2924,16 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s">
-        <v>60</v>
-      </c>
-      <c r="O30" t="s">
-        <v>238</v>
-      </c>
-      <c r="P30" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -2968,34 +2950,52 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" t="s">
+        <v>237</v>
+      </c>
+      <c r="N31" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" t="s">
+        <v>238</v>
+      </c>
+      <c r="P31" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q31" t="s">
         <v>239</v>
       </c>
-      <c r="F31" t="s">
+      <c r="R31" t="s">
+        <v>94</v>
+      </c>
+      <c r="S31" t="s">
         <v>240</v>
       </c>
-      <c r="G31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31" t="s">
-        <v>241</v>
-      </c>
-      <c r="L31" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31" t="s">
-        <v>242</v>
-      </c>
-      <c r="N31" t="s">
-        <v>60</v>
+      <c r="T31" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -3012,34 +3012,34 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" t="s">
         <v>243</v>
       </c>
-      <c r="F32" t="s">
+      <c r="L32" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" t="s">
         <v>244</v>
       </c>
-      <c r="G32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" t="s">
-        <v>245</v>
-      </c>
-      <c r="L32" t="s">
-        <v>231</v>
-      </c>
-      <c r="M32" t="s">
-        <v>246</v>
-      </c>
       <c r="N32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
@@ -3056,34 +3056,46 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" t="s">
         <v>247</v>
       </c>
-      <c r="F33" t="s">
+      <c r="L33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" t="s">
         <v>248</v>
       </c>
-      <c r="G33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="N33" t="s">
+        <v>62</v>
+      </c>
+      <c r="O33" t="s">
         <v>249</v>
       </c>
-      <c r="L33" t="s">
-        <v>85</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="P33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q33" t="s">
         <v>250</v>
       </c>
-      <c r="N33" t="s">
-        <v>60</v>
+      <c r="R33" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34">
@@ -3106,7 +3118,7 @@
         <v>252</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -3121,25 +3133,13 @@
         <v>253</v>
       </c>
       <c r="L34" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M34" t="s">
         <v>254</v>
       </c>
       <c r="N34" t="s">
-        <v>83</v>
-      </c>
-      <c r="O34" t="s">
-        <v>255</v>
-      </c>
-      <c r="P34" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>256</v>
-      </c>
-      <c r="R34" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
@@ -3156,46 +3156,34 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" t="s">
         <v>257</v>
       </c>
-      <c r="F35" t="s">
+      <c r="L35" t="s">
+        <v>132</v>
+      </c>
+      <c r="M35" t="s">
         <v>258</v>
       </c>
-      <c r="G35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" t="s">
-        <v>259</v>
-      </c>
-      <c r="L35" t="s">
-        <v>66</v>
-      </c>
-      <c r="M35" t="s">
-        <v>260</v>
-      </c>
       <c r="N35" t="s">
-        <v>261</v>
-      </c>
-      <c r="O35" t="s">
-        <v>262</v>
-      </c>
-      <c r="P35" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>263</v>
-      </c>
-      <c r="R35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36">
@@ -3212,34 +3200,46 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" t="s">
+        <v>261</v>
+      </c>
+      <c r="L36" t="s">
+        <v>137</v>
+      </c>
+      <c r="M36" t="s">
+        <v>262</v>
+      </c>
+      <c r="N36" t="s">
+        <v>141</v>
+      </c>
+      <c r="O36" t="s">
+        <v>263</v>
+      </c>
+      <c r="P36" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q36" t="s">
         <v>264</v>
       </c>
-      <c r="F36" t="s">
-        <v>265</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" t="s">
-        <v>266</v>
-      </c>
-      <c r="L36" t="s">
-        <v>152</v>
-      </c>
-      <c r="M36" t="s">
-        <v>267</v>
-      </c>
-      <c r="N36" t="s">
-        <v>68</v>
+      <c r="R36" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37">
@@ -3256,51 +3256,39 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" t="s">
+        <v>158</v>
+      </c>
+      <c r="M37" t="s">
         <v>268</v>
       </c>
-      <c r="F37" t="s">
-        <v>269</v>
-      </c>
-      <c r="G37" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" t="s">
-        <v>270</v>
-      </c>
-      <c r="L37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M37" t="s">
-        <v>271</v>
-      </c>
       <c r="N37" t="s">
-        <v>87</v>
-      </c>
-      <c r="O37" t="s">
-        <v>272</v>
-      </c>
-      <c r="P37" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>273</v>
-      </c>
-      <c r="R37" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -3312,45 +3300,51 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
+        <v>62</v>
+      </c>
+      <c r="M38" t="s">
+        <v>272</v>
+      </c>
+      <c r="N38" t="s">
+        <v>105</v>
+      </c>
+      <c r="O38" t="s">
+        <v>273</v>
+      </c>
+      <c r="P38" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q38" t="s">
         <v>274</v>
       </c>
-      <c r="F38" t="s">
-        <v>275</v>
-      </c>
-      <c r="G38" t="s">
-        <v>276</v>
-      </c>
-      <c r="H38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" t="s">
-        <v>277</v>
-      </c>
-      <c r="L38" t="s">
-        <v>278</v>
-      </c>
-      <c r="M38" t="s">
-        <v>279</v>
-      </c>
-      <c r="N38" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" t="s">
-        <v>280</v>
-      </c>
-      <c r="P38" t="s">
-        <v>133</v>
+      <c r="R38" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -3362,52 +3356,64 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" t="s">
+        <v>94</v>
+      </c>
+      <c r="M39" t="s">
+        <v>278</v>
+      </c>
+      <c r="N39" t="s">
+        <v>279</v>
+      </c>
+      <c r="O39" t="s">
+        <v>280</v>
+      </c>
+      <c r="P39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39" t="s">
         <v>281</v>
       </c>
-      <c r="F39" t="s">
+      <c r="R39" t="s">
+        <v>68</v>
+      </c>
+      <c r="S39" t="s">
         <v>282</v>
       </c>
-      <c r="G39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="T39" t="s">
+        <v>83</v>
+      </c>
+      <c r="U39" t="s">
         <v>283</v>
       </c>
-      <c r="L39" t="s">
-        <v>83</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="V39" t="s">
+        <v>116</v>
+      </c>
+      <c r="W39" t="s">
         <v>284</v>
       </c>
-      <c r="N39" t="s">
-        <v>231</v>
-      </c>
-      <c r="O39" t="s">
-        <v>285</v>
-      </c>
-      <c r="P39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>286</v>
-      </c>
-      <c r="R39" t="s">
-        <v>89</v>
-      </c>
-      <c r="S39" t="s">
-        <v>287</v>
-      </c>
-      <c r="T39" t="s">
-        <v>87</v>
+      <c r="X39" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40">
@@ -3424,46 +3430,40 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
+        <v>285</v>
+      </c>
+      <c r="F40" t="s">
+        <v>286</v>
+      </c>
+      <c r="G40" t="s">
+        <v>287</v>
+      </c>
+      <c r="H40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" t="s">
         <v>288</v>
       </c>
-      <c r="F40" t="s">
+      <c r="L40" t="s">
         <v>289</v>
       </c>
-      <c r="G40" t="s">
-        <v>276</v>
-      </c>
-      <c r="H40" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" t="s">
-        <v>57</v>
-      </c>
-      <c r="J40" t="s">
-        <v>58</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="M40" t="s">
         <v>290</v>
       </c>
-      <c r="L40" t="s">
-        <v>89</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
+        <v>110</v>
+      </c>
+      <c r="O40" t="s">
         <v>291</v>
       </c>
-      <c r="N40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O40" t="s">
-        <v>292</v>
-      </c>
       <c r="P40" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>294</v>
-      </c>
-      <c r="R40" t="s">
-        <v>293</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
@@ -3480,34 +3480,46 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
+        <v>292</v>
+      </c>
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" t="s">
+        <v>294</v>
+      </c>
+      <c r="L41" t="s">
+        <v>68</v>
+      </c>
+      <c r="M41" t="s">
         <v>295</v>
       </c>
-      <c r="F41" t="s">
+      <c r="N41" t="s">
+        <v>94</v>
+      </c>
+      <c r="O41" t="s">
         <v>296</v>
       </c>
-      <c r="G41" t="s">
-        <v>150</v>
-      </c>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="P41" t="s">
         <v>297</v>
       </c>
-      <c r="L41" t="s">
-        <v>66</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="Q41" t="s">
         <v>298</v>
       </c>
-      <c r="N41" t="s">
-        <v>68</v>
+      <c r="R41" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="42">
@@ -3530,7 +3542,7 @@
         <v>300</v>
       </c>
       <c r="G42" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -3545,13 +3557,73 @@
         <v>301</v>
       </c>
       <c r="L42" t="s">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N42" t="s">
-        <v>133</v>
+        <v>125</v>
+      </c>
+      <c r="O42" t="s">
+        <v>304</v>
+      </c>
+      <c r="P42" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>306</v>
+      </c>
+      <c r="R42" t="s">
+        <v>128</v>
+      </c>
+      <c r="S42" t="s">
+        <v>307</v>
+      </c>
+      <c r="T42" t="s">
+        <v>132</v>
+      </c>
+      <c r="U42" t="s">
+        <v>308</v>
+      </c>
+      <c r="V42" t="s">
+        <v>62</v>
+      </c>
+      <c r="W42" t="s">
+        <v>309</v>
+      </c>
+      <c r="X42" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43">
@@ -3568,13 +3640,13 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -3586,16 +3658,16 @@
         <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M43" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="N43" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44">
@@ -3612,13 +3684,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -3630,22 +3702,16 @@
         <v>58</v>
       </c>
       <c r="K44" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s">
-        <v>310</v>
+        <v>68</v>
       </c>
       <c r="M44" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="N44" t="s">
-        <v>60</v>
-      </c>
-      <c r="O44" t="s">
-        <v>312</v>
-      </c>
-      <c r="P44" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
@@ -3662,10 +3728,10 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F45" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="G45" t="s">
         <v>52</v>
@@ -3680,16 +3746,16 @@
         <v>58</v>
       </c>
       <c r="K45" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="L45" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="M45" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="N45" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
@@ -3706,10 +3772,10 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="F46" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="G46" t="s">
         <v>52</v>
@@ -3724,52 +3790,22 @@
         <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="L46" t="s">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="M46" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="N46" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O46" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="P46" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>322</v>
-      </c>
-      <c r="R46" t="s">
-        <v>81</v>
-      </c>
-      <c r="S46" t="s">
-        <v>323</v>
-      </c>
-      <c r="T46" t="s">
-        <v>83</v>
-      </c>
-      <c r="U46" t="s">
-        <v>324</v>
-      </c>
-      <c r="V46" t="s">
-        <v>325</v>
-      </c>
-      <c r="W46" t="s">
-        <v>326</v>
-      </c>
-      <c r="X46" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
@@ -3786,10 +3822,10 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F47" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -3804,22 +3840,16 @@
         <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="M47" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="N47" t="s">
-        <v>133</v>
-      </c>
-      <c r="O47" t="s">
-        <v>333</v>
-      </c>
-      <c r="P47" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
@@ -3836,10 +3866,10 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F48" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
@@ -3854,16 +3884,52 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L48" t="s">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="M48" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N48" t="s">
-        <v>133</v>
+        <v>342</v>
+      </c>
+      <c r="O48" t="s">
+        <v>343</v>
+      </c>
+      <c r="P48" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>344</v>
+      </c>
+      <c r="R48" t="s">
+        <v>305</v>
+      </c>
+      <c r="S48" t="s">
+        <v>345</v>
+      </c>
+      <c r="T48" t="s">
+        <v>83</v>
+      </c>
+      <c r="U48" t="s">
+        <v>346</v>
+      </c>
+      <c r="V48" t="s">
+        <v>305</v>
+      </c>
+      <c r="W48" t="s">
+        <v>347</v>
+      </c>
+      <c r="X48" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49">
@@ -3880,13 +3946,13 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="F49" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
@@ -3898,22 +3964,22 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L49" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="M49" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="N49" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="O49" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="P49" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
@@ -3930,13 +3996,13 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="F50" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G50" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
@@ -3948,22 +4014,16 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="M50" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="N50" t="s">
-        <v>133</v>
-      </c>
-      <c r="O50" t="s">
-        <v>348</v>
-      </c>
-      <c r="P50" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
@@ -3980,13 +4040,13 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F51" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G51" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H51" t="s">
         <v>56</v>
@@ -3998,82 +4058,22 @@
         <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="L51" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="M51" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="N51" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="O51" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P51" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>354</v>
-      </c>
-      <c r="R51" t="s">
-        <v>231</v>
-      </c>
-      <c r="S51" t="s">
-        <v>355</v>
-      </c>
-      <c r="T51" t="s">
-        <v>85</v>
-      </c>
-      <c r="U51" t="s">
-        <v>356</v>
-      </c>
-      <c r="V51" t="s">
-        <v>231</v>
-      </c>
-      <c r="W51" t="s">
-        <v>357</v>
-      </c>
-      <c r="X51" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF51" t="s">
         <v>94</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>363</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>364</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="52">
@@ -4090,34 +4090,40 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
+        <v>364</v>
+      </c>
+      <c r="F52" t="s">
         <v>365</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
+        <v>156</v>
+      </c>
+      <c r="H52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" t="s">
         <v>366</v>
       </c>
-      <c r="G52" t="s">
-        <v>75</v>
-      </c>
-      <c r="H52" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" t="s">
-        <v>57</v>
-      </c>
-      <c r="J52" t="s">
-        <v>58</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
+        <v>158</v>
+      </c>
+      <c r="M52" t="s">
         <v>367</v>
       </c>
-      <c r="L52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
+        <v>158</v>
+      </c>
+      <c r="O52" t="s">
         <v>368</v>
       </c>
-      <c r="N52" t="s">
-        <v>60</v>
+      <c r="P52" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="53">
@@ -4140,7 +4146,7 @@
         <v>370</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="H53" t="s">
         <v>56</v>
@@ -4155,25 +4161,13 @@
         <v>371</v>
       </c>
       <c r="L53" t="s">
-        <v>341</v>
+        <v>132</v>
       </c>
       <c r="M53" t="s">
         <v>372</v>
       </c>
       <c r="N53" t="s">
-        <v>361</v>
-      </c>
-      <c r="O53" t="s">
-        <v>373</v>
-      </c>
-      <c r="P53" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>374</v>
-      </c>
-      <c r="R53" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54">
@@ -4190,40 +4184,34 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
+        <v>373</v>
+      </c>
+      <c r="F54" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" t="s">
         <v>375</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" t="s">
         <v>376</v>
       </c>
-      <c r="G54" t="s">
+      <c r="L54" t="s">
+        <v>62</v>
+      </c>
+      <c r="M54" t="s">
         <v>377</v>
       </c>
-      <c r="H54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" t="s">
-        <v>57</v>
-      </c>
-      <c r="J54" t="s">
-        <v>58</v>
-      </c>
-      <c r="K54" t="s">
-        <v>378</v>
-      </c>
-      <c r="L54" t="s">
-        <v>218</v>
-      </c>
-      <c r="M54" t="s">
-        <v>379</v>
-      </c>
       <c r="N54" t="s">
-        <v>89</v>
-      </c>
-      <c r="O54" t="s">
-        <v>380</v>
-      </c>
-      <c r="P54" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
@@ -4240,39 +4228,45 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
+        <v>378</v>
+      </c>
+      <c r="F55" t="s">
+        <v>379</v>
+      </c>
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s">
+        <v>57</v>
+      </c>
+      <c r="J55" t="s">
+        <v>58</v>
+      </c>
+      <c r="K55" t="s">
+        <v>380</v>
+      </c>
+      <c r="L55" t="s">
+        <v>62</v>
+      </c>
+      <c r="M55" t="s">
         <v>381</v>
       </c>
-      <c r="F55" t="s">
+      <c r="N55" t="s">
         <v>382</v>
       </c>
-      <c r="G55" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" t="s">
-        <v>56</v>
-      </c>
-      <c r="I55" t="s">
-        <v>57</v>
-      </c>
-      <c r="J55" t="s">
-        <v>58</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="O55" t="s">
         <v>383</v>
       </c>
-      <c r="L55" t="s">
-        <v>60</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="P55" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q55" t="s">
         <v>384</v>
       </c>
-      <c r="N55" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" t="s">
-        <v>385</v>
-      </c>
-      <c r="P55" t="s">
+      <c r="R55" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4290,34 +4284,40 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
+        <v>385</v>
+      </c>
+      <c r="F56" t="s">
         <v>386</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" t="s">
         <v>387</v>
       </c>
-      <c r="G56" t="s">
+      <c r="L56" t="s">
+        <v>279</v>
+      </c>
+      <c r="M56" t="s">
         <v>388</v>
       </c>
-      <c r="H56" t="s">
-        <v>56</v>
-      </c>
-      <c r="I56" t="s">
-        <v>57</v>
-      </c>
-      <c r="J56" t="s">
-        <v>58</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="N56" t="s">
+        <v>116</v>
+      </c>
+      <c r="O56" t="s">
         <v>389</v>
       </c>
-      <c r="L56" t="s">
-        <v>60</v>
-      </c>
-      <c r="M56" t="s">
-        <v>390</v>
-      </c>
-      <c r="N56" t="s">
-        <v>107</v>
+      <c r="P56" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="57">
@@ -4334,40 +4334,34 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
+        <v>390</v>
+      </c>
+      <c r="F57" t="s">
         <v>391</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K57" t="s">
         <v>392</v>
       </c>
-      <c r="G57" t="s">
-        <v>58</v>
-      </c>
-      <c r="H57" t="s">
-        <v>56</v>
-      </c>
-      <c r="I57" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" t="s">
-        <v>58</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
+        <v>62</v>
+      </c>
+      <c r="M57" t="s">
         <v>393</v>
       </c>
-      <c r="L57" t="s">
-        <v>218</v>
-      </c>
-      <c r="M57" t="s">
-        <v>394</v>
-      </c>
       <c r="N57" t="s">
-        <v>87</v>
-      </c>
-      <c r="O57" t="s">
-        <v>395</v>
-      </c>
-      <c r="P57" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -4384,34 +4378,34 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
+        <v>394</v>
+      </c>
+      <c r="F58" t="s">
+        <v>395</v>
+      </c>
+      <c r="G58" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" t="s">
         <v>396</v>
       </c>
-      <c r="F58" t="s">
+      <c r="L58" t="s">
+        <v>158</v>
+      </c>
+      <c r="M58" t="s">
         <v>397</v>
       </c>
-      <c r="G58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" t="s">
-        <v>58</v>
-      </c>
-      <c r="K58" t="s">
-        <v>398</v>
-      </c>
-      <c r="L58" t="s">
-        <v>60</v>
-      </c>
-      <c r="M58" t="s">
-        <v>399</v>
-      </c>
       <c r="N58" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59">
@@ -4428,34 +4422,34 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
+        <v>398</v>
+      </c>
+      <c r="F59" t="s">
+        <v>399</v>
+      </c>
+      <c r="G59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" t="s">
+        <v>58</v>
+      </c>
+      <c r="K59" t="s">
         <v>400</v>
       </c>
-      <c r="F59" t="s">
+      <c r="L59" t="s">
+        <v>125</v>
+      </c>
+      <c r="M59" t="s">
         <v>401</v>
       </c>
-      <c r="G59" t="s">
-        <v>150</v>
-      </c>
-      <c r="H59" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" t="s">
-        <v>57</v>
-      </c>
-      <c r="J59" t="s">
-        <v>58</v>
-      </c>
-      <c r="K59" t="s">
-        <v>402</v>
-      </c>
-      <c r="L59" t="s">
-        <v>152</v>
-      </c>
-      <c r="M59" t="s">
-        <v>403</v>
-      </c>
       <c r="N59" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60">
@@ -4472,39 +4466,39 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
+        <v>402</v>
+      </c>
+      <c r="F60" t="s">
+        <v>403</v>
+      </c>
+      <c r="G60" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" t="s">
         <v>404</v>
       </c>
-      <c r="F60" t="s">
+      <c r="L60" t="s">
+        <v>132</v>
+      </c>
+      <c r="M60" t="s">
         <v>405</v>
       </c>
-      <c r="G60" t="s">
-        <v>52</v>
-      </c>
-      <c r="H60" t="s">
-        <v>56</v>
-      </c>
-      <c r="I60" t="s">
-        <v>57</v>
-      </c>
-      <c r="J60" t="s">
-        <v>58</v>
-      </c>
-      <c r="K60" t="s">
-        <v>406</v>
-      </c>
-      <c r="L60" t="s">
-        <v>83</v>
-      </c>
-      <c r="M60" t="s">
-        <v>407</v>
-      </c>
       <c r="N60" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B61" t="s">
         <v>50</v>
@@ -4516,34 +4510,40 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
+        <v>406</v>
+      </c>
+      <c r="F61" t="s">
+        <v>407</v>
+      </c>
+      <c r="G61" t="s">
         <v>408</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61" t="s">
+        <v>58</v>
+      </c>
+      <c r="K61" t="s">
         <v>409</v>
       </c>
-      <c r="G61" t="s">
-        <v>75</v>
-      </c>
-      <c r="H61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I61" t="s">
-        <v>57</v>
-      </c>
-      <c r="J61" t="s">
-        <v>58</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
+        <v>279</v>
+      </c>
+      <c r="M61" t="s">
         <v>410</v>
       </c>
-      <c r="L61" t="s">
-        <v>85</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
+        <v>94</v>
+      </c>
+      <c r="O61" t="s">
         <v>411</v>
       </c>
-      <c r="N61" t="s">
-        <v>89</v>
+      <c r="P61" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
